--- a/Projects/FRC Operator Interface Control Board/controlBoard_EagleProject/bom_frc_operator_interface_rev1_1.xlsx
+++ b/Projects/FRC Operator Interface Control Board/controlBoard_EagleProject/bom_frc_operator_interface_rev1_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnnazare\Documents\Personal\FIRST Robotics\FRC-4901-Garnet-Squadron\Projects\FRC Operator Interface Control Board\controlBoard_EagleProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryann\OneDrive\Documents\GitHub\FRC-4901-Garnet-Squadron\Projects\FRC Operator Interface Control Board\controlBoard_EagleProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="bom_frc_operator_interface_rev1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
   <si>
     <t>Qty</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -39,66 +36,36 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DATASHEETURL</t>
-  </si>
-  <si>
-    <t>MANUFACTURER</t>
-  </si>
-  <si>
-    <t>MANUFACTURER_PART_NUMBER</t>
-  </si>
-  <si>
-    <t>10-XX</t>
-  </si>
-  <si>
     <t>B3F-10XX</t>
   </si>
   <si>
     <t>RESET</t>
   </si>
   <si>
-    <t>OMRON SWITCH</t>
-  </si>
-  <si>
     <t>B3F-1000</t>
   </si>
   <si>
     <t>LED3MM</t>
   </si>
   <si>
-    <t>LEDs</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C-USC1206</t>
-  </si>
-  <si>
     <t>C1206</t>
   </si>
   <si>
     <t>C1, C2, C4, C5, C6, C7, C8, C28, C29, C34, C35</t>
   </si>
   <si>
-    <t>CAPACITOR, American symbol</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R-US_M1206</t>
-  </si>
-  <si>
     <t>M1206</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>RESISTOR, American symbol</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -108,30 +75,18 @@
     <t>R6</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
     <t>R8, R9</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>4R-NEXB38V</t>
-  </si>
-  <si>
     <t>EXB38V</t>
   </si>
   <si>
     <t>CN1, CN2, CN3, CN4</t>
   </si>
   <si>
-    <t>Array Chip Resistor</t>
-  </si>
-  <si>
-    <t>2.52K</t>
-  </si>
-  <si>
     <t>R12</t>
   </si>
   <si>
@@ -147,81 +102,24 @@
     <t>500mA</t>
   </si>
   <si>
-    <t>PTCSMD</t>
-  </si>
-  <si>
     <t>PTC-1206</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>Resettable Fuse PTC</t>
-  </si>
-  <si>
-    <t>ANALOGHEADER</t>
-  </si>
-  <si>
-    <t>U$12</t>
-  </si>
-  <si>
     <t>ATMEGA2560AU</t>
   </si>
   <si>
     <t>TQFP100</t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>MICROCONTROLLER</t>
-  </si>
-  <si>
-    <t>AVR_SPI_PRG_6PTH</t>
-  </si>
-  <si>
-    <t>2X3</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>AVR ISP 6 Pin</t>
-  </si>
-  <si>
-    <t>DIGITALIN</t>
-  </si>
-  <si>
-    <t>U$2</t>
-  </si>
-  <si>
-    <t>DIGITALOUTPUTS</t>
-  </si>
-  <si>
-    <t>DIGITALOUT</t>
-  </si>
-  <si>
-    <t>U$11</t>
-  </si>
-  <si>
     <t>FT232RLSSOP</t>
   </si>
   <si>
     <t>SSOP28DB</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>USB UART</t>
-  </si>
-  <si>
-    <t>PWMHEADER</t>
-  </si>
-  <si>
-    <t>U$10</t>
-  </si>
-  <si>
     <t>RESONATORSMD</t>
   </si>
   <si>
@@ -231,9 +129,6 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>Resonator</t>
-  </si>
-  <si>
     <t>TLC59282_DBQ_24</t>
   </si>
   <si>
@@ -255,12 +150,6 @@
     <t>UE27BC54130-USB</t>
   </si>
   <si>
-    <t>U$14</t>
-  </si>
-  <si>
-    <t>DIGIKEY_PART_NUMBER</t>
-  </si>
-  <si>
     <t>SW400-ND</t>
   </si>
   <si>
@@ -345,9 +234,6 @@
     <t>CL31F104MBCNNNC</t>
   </si>
   <si>
-    <t>DESCRIPTION2</t>
-  </si>
-  <si>
     <t>399-1299-1-ND</t>
   </si>
   <si>
@@ -393,12 +279,6 @@
     <t>Total needed</t>
   </si>
   <si>
-    <t>Board Quantity</t>
-  </si>
-  <si>
-    <t>LED Constant Current Driver</t>
-  </si>
-  <si>
     <t>296-28098-1-ND</t>
   </si>
   <si>
@@ -414,27 +294,9 @@
     <t>Atmel</t>
   </si>
   <si>
-    <t>ATmega2560-16AU</t>
-  </si>
-  <si>
-    <t>2.55k (2.52 unavail) 1206 Resistor</t>
-  </si>
-  <si>
-    <t>311-2.55KFRCT-ND</t>
-  </si>
-  <si>
     <t>Yageo</t>
   </si>
   <si>
-    <t>RC1206FR-072K55L</t>
-  </si>
-  <si>
-    <t>eBay</t>
-  </si>
-  <si>
-    <t>USB Port</t>
-  </si>
-  <si>
     <t>USB Type B Port</t>
   </si>
   <si>
@@ -451,12 +313,207 @@
   </si>
   <si>
     <t>16MHz Resonator (for ATmega clock)</t>
+  </si>
+  <si>
+    <t>ATMEGA2560-16AU-ND</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>16X2</t>
+  </si>
+  <si>
+    <t>HTSW-110-07-L-T-ND</t>
+  </si>
+  <si>
+    <t>SAM1030-16-ND</t>
+  </si>
+  <si>
+    <t>P280BCCT-ND</t>
+  </si>
+  <si>
+    <t>2.55K</t>
+  </si>
+  <si>
+    <t>P2.55KBCCT-ND</t>
+  </si>
+  <si>
+    <t>P316BCCT-ND</t>
+  </si>
+  <si>
+    <t>YAG1242CT-ND</t>
+  </si>
+  <si>
+    <t>P174BCCT-ND</t>
+  </si>
+  <si>
+    <t>RG32P300BCT-ND</t>
+  </si>
+  <si>
+    <t>YAG3366CT-ND</t>
+  </si>
+  <si>
+    <t>768-1007-1-ND</t>
+  </si>
+  <si>
+    <t>http://suddendocs.samtec.com/catalog_english/tsw_th.pdf</t>
+  </si>
+  <si>
+    <t>16 Digital Inputs (Ground to Signal, Internal Pullup)</t>
+  </si>
+  <si>
+    <t>Samtec, Inc</t>
+  </si>
+  <si>
+    <t>TSW-116-07-L-D</t>
+  </si>
+  <si>
+    <t>HTSW-110-07-L-T</t>
+  </si>
+  <si>
+    <t>280 Ohm 1206 Resistor</t>
+  </si>
+  <si>
+    <t>2.55k Ohm 1206 Resistor</t>
+  </si>
+  <si>
+    <t>315 Ohm 1206 Resistor</t>
+  </si>
+  <si>
+    <t>10k Ohm 1206 Resistor</t>
+  </si>
+  <si>
+    <t>170 Ohm 1206 Resistor</t>
+  </si>
+  <si>
+    <t>300 Ohm 1206 Resistor</t>
+  </si>
+  <si>
+    <t>1k Ohm 1206 Resistor</t>
+  </si>
+  <si>
+    <t>http://www.assmann.us/specs/AU-Y1007-2.pdf</t>
+  </si>
+  <si>
+    <t>http://industrial.panasonic.com/lecs/www-data/pdf/AOA0000/AOA0000CE26.pdf</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERA-8AEB2800V</t>
+  </si>
+  <si>
+    <t>ERA-8AEB2551V</t>
+  </si>
+  <si>
+    <t>ERA-8AEB3160V</t>
+  </si>
+  <si>
+    <t>RT1206FRE0710KL</t>
+  </si>
+  <si>
+    <t>http://www.yageo.com/documents/recent/PYu-RT_1-to-0.05_RoHS_L_6.pdf</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>RG3216P-3000-B-T1</t>
+  </si>
+  <si>
+    <t>ERA-8AEB1740V</t>
+  </si>
+  <si>
+    <t>http://www.susumu-usa.com/pdf/RG_RM_RGH_DATASHEET.pdf</t>
+  </si>
+  <si>
+    <t>2x3, 16x3, 16x3</t>
+  </si>
+  <si>
+    <t>J1, J2, J5</t>
+  </si>
+  <si>
+    <t>J3, J4</t>
+  </si>
+  <si>
+    <t>3 row header</t>
+  </si>
+  <si>
+    <t>2 row header</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>RT1206FRE071KL</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>FT232RL-REEL</t>
+  </si>
+  <si>
+    <t>ATMEGA2560-16AU</t>
+  </si>
+  <si>
+    <t>CSTCE16M0V53-R0</t>
+  </si>
+  <si>
+    <t>http://www.murata.com/~/media/webrenewal/support/library/catalog/products/timingdevice/ceralock/p16e.ashx</t>
+  </si>
+  <si>
+    <t>http://www.ftdichip.com/Support/Documents/DataSheets/ICs/DS_FT232R.pdf</t>
+  </si>
+  <si>
+    <t>USB to UART Controller</t>
+  </si>
+  <si>
+    <t>SPST-NO</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>20mA, 3.3V</t>
+  </si>
+  <si>
+    <t>20mA, 1.85V</t>
+  </si>
+  <si>
+    <t>20mA, 2V</t>
+  </si>
+  <si>
+    <t>20mA, 2.2V</t>
+  </si>
+  <si>
+    <t>Datasheet URL</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>Digi-Key Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +657,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,12 +835,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -966,13 +1017,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1019,7 +1074,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1037,26 +1103,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:L29" totalsRowShown="0">
-  <autoFilter ref="A3:L29"/>
-  <sortState ref="B4:M29">
-    <sortCondition ref="E3:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0">
+  <autoFilter ref="A1:K24"/>
+  <sortState ref="A4:L29">
+    <sortCondition ref="A3:A29"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="11">
     <tableColumn id="5" name="Parts"/>
     <tableColumn id="1" name="Qty"/>
-    <tableColumn id="12" name="Total needed" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Qty]]*$B$1</calculatedColumnFormula>
+    <tableColumn id="12" name="Total needed" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[Qty]]*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Device"/>
+    <tableColumn id="3" name="Quantity"/>
+    <tableColumn id="2" name="Value" dataDxfId="1"/>
     <tableColumn id="4" name="Package"/>
-    <tableColumn id="6" name="Description"/>
-    <tableColumn id="7" name="DATASHEETURL"/>
-    <tableColumn id="8" name="DESCRIPTION2"/>
-    <tableColumn id="9" name="DIGIKEY_PART_NUMBER"/>
-    <tableColumn id="10" name="MANUFACTURER"/>
-    <tableColumn id="11" name="MANUFACTURER_PART_NUMBER"/>
+    <tableColumn id="7" name="Datasheet URL"/>
+    <tableColumn id="8" name="Description"/>
+    <tableColumn id="9" name="Digi-Key Part Number" dataDxfId="0"/>
+    <tableColumn id="10" name="Manufacturer"/>
+    <tableColumn id="11" name="Manufacturer Part Number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1325,922 +1390,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I24" sqref="I24"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="66.42578125" customWidth="1"/>
-    <col min="10" max="10" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>280</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>315</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>300</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" t="s">
         <v>124</v>
       </c>
-      <c r="B1">
+      <c r="I15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
         <v>5</v>
       </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
         <v>8</v>
       </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" t="s">
-        <v>116</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
+      <c r="C21" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D21">
-        <v>280</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" t="s">
-        <v>135</v>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>315</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
+      <c r="C24" t="e">
+        <f>Table1[[#This Row],[Qty]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>170</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>300</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <f>Table1[[#This Row],[Qty]]*$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" t="s">
-        <v>137</v>
-      </c>
-      <c r="I29" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" t="s">
-        <v>140</v>
-      </c>
-      <c r="L29" t="s">
-        <v>141</v>
+        <v>159</v>
+      </c>
+      <c r="K24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" display="http://www.digikey.com/product-detail/en/B3F-1000/SW400-ND/33150"/>
-    <hyperlink ref="J17" r:id="rId2" display="http://www.digikey.com/product-detail/en/WP710A10SGC/754-1591-ND/2769816"/>
-    <hyperlink ref="J15" r:id="rId3" display="http://www.digikey.com/product-detail/en/WP710A10SRC%2FD/754-1598-ND/2769817"/>
-    <hyperlink ref="J16" r:id="rId4" display="http://www.digikey.com/product-detail/en/WP710A10SYCK/754-1611-ND/2769685"/>
-    <hyperlink ref="J14" r:id="rId5" display="http://www.digikey.com/product-detail/en/WP710A10QBC%2FD/754-1596-ND/2769812"/>
-    <hyperlink ref="J9" r:id="rId6" display="http://www.digikey.com/product-detail/en/CL31F104MBCNNNC/1276-2854-1-ND/3890940"/>
-    <hyperlink ref="J10" r:id="rId7" display="http://www.digikey.com/product-detail/en/C1206C106Z8VACTU/399-1299-1-ND/417872"/>
-    <hyperlink ref="J5" r:id="rId8" display="http://www.digikey.com/product-detail/en/CKCA43X5R0J105M100AA/445-8921-1-ND/3507949"/>
-    <hyperlink ref="J18" r:id="rId9" display="http://www.digikey.com/product-detail/en/MF-NSMF050-2/MF-NSMF050-2CT-ND/662834"/>
-    <hyperlink ref="J28" r:id="rId10" display="http://www.digikey.com/product-detail/en/TLC59282DBQR/296-28098-1-ND/2509801"/>
-    <hyperlink ref="J22" r:id="rId11" display="http://www.digikey.com/product-detail/en/RC1206FR-072K55L/311-2.55KFRCT-ND/731595"/>
-    <hyperlink ref="J29" r:id="rId12" display="http://www.digikey.com/product-detail/en/AU-Y1007-2/AE11188-ND/5031762"/>
-    <hyperlink ref="J20" r:id="rId13" display="http://www.digikey.com/product-detail/en/CSTCE16M0V53-R0/490-1198-1-ND/584635"/>
+    <hyperlink ref="I17" r:id="rId1" display="http://www.digikey.com/product-detail/en/B3F-1000/SW400-ND/33150"/>
+    <hyperlink ref="I20" r:id="rId2" display="http://www.digikey.com/product-detail/en/WP710A10SGC/754-1591-ND/2769816"/>
+    <hyperlink ref="I18" r:id="rId3" display="http://www.digikey.com/product-detail/en/WP710A10SRC%2FD/754-1598-ND/2769817"/>
+    <hyperlink ref="I19" r:id="rId4" display="http://www.digikey.com/product-detail/en/WP710A10SYCK/754-1611-ND/2769685"/>
+    <hyperlink ref="I9" r:id="rId5" display="http://www.digikey.com/product-detail/en/WP710A10QBC%2FD/754-1596-ND/2769812"/>
+    <hyperlink ref="I2" r:id="rId6" display="http://www.digikey.com/product-detail/en/CL31F104MBCNNNC/1276-2854-1-ND/3890940"/>
+    <hyperlink ref="I3" r:id="rId7" display="http://www.digikey.com/product-detail/en/C1206C106Z8VACTU/399-1299-1-ND/417872"/>
+    <hyperlink ref="I4" r:id="rId8" display="http://www.digikey.com/product-detail/en/CKCA43X5R0J105M100AA/445-8921-1-ND/3507949"/>
+    <hyperlink ref="I5" r:id="rId9" display="http://www.digikey.com/product-detail/en/MF-NSMF050-2/MF-NSMF050-2CT-ND/662834"/>
+    <hyperlink ref="I23" r:id="rId10" display="http://www.digikey.com/product-detail/en/TLC59282DBQR/296-28098-1-ND/2509801"/>
+    <hyperlink ref="I8" r:id="rId11" display="http://www.digikey.com/product-detail/en/AU-Y1007-2/AE11188-ND/5031762"/>
+    <hyperlink ref="I24" r:id="rId12" display="http://www.digikey.com/product-detail/en/CSTCE16M0V53-R0/490-1198-1-ND/584635"/>
+    <hyperlink ref="I21" r:id="rId13" display="http://www.digikey.com/product-detail/en/ATMEGA2560-16AU/ATMEGA2560-16AU-ND/735455"/>
+    <hyperlink ref="I6" r:id="rId14" display="http://www.digikey.com/product-detail/en/HTSW-110-07-L-T/HTSW-110-07-L-T-ND/2345309"/>
+    <hyperlink ref="I7" r:id="rId15" display="http://www.digikey.com/product-detail/en/TSW-116-07-L-D/SAM1030-16-ND/1101361"/>
+    <hyperlink ref="I10" r:id="rId16" display="http://www.digikey.com/product-detail/en/ERA-8AEB2800V/P280BCCT-ND/3069712"/>
+    <hyperlink ref="I11" r:id="rId17" display="http://www.digikey.com/product-detail/en/ERA-8AEB2551V/P2.55KBCCT-ND/3069693"/>
+    <hyperlink ref="I12" r:id="rId18" display="http://www.digikey.com/product-detail/en/ERA-8AEB3160V/P316BCCT-ND/3069736"/>
+    <hyperlink ref="I13" r:id="rId19" display="http://www.digikey.com/product-detail/en/RT1206FRE0710KL/YAG1242CT-ND/4340595"/>
+    <hyperlink ref="I14" r:id="rId20" display="http://www.digikey.com/product-detail/en/ERA-8AEB1740V/P174BCCT-ND/3069616"/>
+    <hyperlink ref="I15" r:id="rId21" display="http://www.digikey.com/product-detail/en/RG3216P-3000-B-T1/RG32P300BCT-ND/2078679"/>
+    <hyperlink ref="I16" r:id="rId22" display="http://www.digikey.com/product-detail/en/RT1206FRE071KL/YAG3366CT-ND/5418071"/>
+    <hyperlink ref="I22" r:id="rId23" display="http://www.digikey.com/product-detail/en/FT232RL-REEL/768-1007-1-ND/1836402"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>